--- a/Logs/3/outKNNRGB.xlsx
+++ b/Logs/3/outKNNRGB.xlsx
@@ -101,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,11 +109,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,11 +137,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,7 +453,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,31 +468,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -488,25 +509,25 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.59</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>0.91</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.95</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>0.74</v>
       </c>
       <c r="L2" s="3">
@@ -521,25 +542,25 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>0.91</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.95</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="6">
         <v>0.75</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -549,25 +570,25 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.51</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>0.87</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.93</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>0.63</v>
       </c>
       <c r="L4">
@@ -578,25 +599,25 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.54</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>0.88</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.94</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -605,100 +626,100 @@
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>0.98</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>0.68</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>0.95</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>0.87</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>0.96</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>0.99</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>0.72</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>0.95</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>0.93</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.64</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>0.93</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.96</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>0.77</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.63</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>0.92</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.96</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="6">
         <v>0.77</v>
       </c>
     </row>
@@ -707,25 +728,25 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.47</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>0.87</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>0.83</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <v>0.92</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="6">
         <v>0.6</v>
       </c>
       <c r="J10" s="3"/>
@@ -733,75 +754,75 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.49</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>0.89</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>0.8</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <v>0.93</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="6">
         <v>0.61</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.39</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>0.83</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>0.8</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <v>0.9</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="6">
         <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>20</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>0.96</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>0.4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>0.85</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>0.77</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <v>0.9</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="6">
         <v>0.53</v>
       </c>
     </row>
@@ -810,100 +831,100 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.69</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>0.94</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>0.72</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>0.95</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>0.9</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.95</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="6">
         <v>0.72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>20</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>0.91</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H17" s="6">
         <v>0.95</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="6">
         <v>0.72</v>
       </c>
     </row>
@@ -914,100 +935,100 @@
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.6</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>0.91</v>
       </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.95</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="6">
         <v>0.9</v>
       </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.95</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="6">
         <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
         <v>0.52</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="6">
         <v>0.87</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
         <v>0.93</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="6">
         <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <v>0.53</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6">
         <v>0.88</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
         <v>0.94</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="6">
         <v>0.69</v>
       </c>
     </row>
@@ -1016,100 +1037,100 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="7">
         <v>0.99</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
         <v>0.73</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>0.96</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>0.9</v>
       </c>
-      <c r="H22" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I22" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>10</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
         <v>0.71</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="7">
         <v>0.95</v>
       </c>
-      <c r="G23" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="G23" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I23" s="7">
         <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>15</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
         <v>0.59</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="6">
         <v>0.91</v>
       </c>
-      <c r="G24" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H24" s="6">
         <v>0.95</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="6">
         <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
         <v>0.6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <v>0.91</v>
       </c>
-      <c r="G25" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.95</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="6">
         <v>0.74</v>
       </c>
     </row>
@@ -1118,100 +1139,100 @@
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E26" s="6">
         <v>0.48</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <v>0.88</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="6">
         <v>0.8</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <v>0.92</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>10</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E27" s="6">
         <v>0.46</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>0.87</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="6">
         <v>0.8</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <v>0.92</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="6">
         <v>0.59</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>15</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>0.96</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="6">
         <v>0.41</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6">
         <v>0.85</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>0.77</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>0.9</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="6">
         <v>0.53</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>20</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>0.96</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="6">
         <v>0.41</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="6">
         <v>0.85</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="6">
         <v>0.77</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <v>0.9</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="6">
         <v>0.53</v>
       </c>
     </row>
@@ -1220,100 +1241,100 @@
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
         <v>0.71</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="7">
         <v>0.95</v>
       </c>
-      <c r="G30" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="G30" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I30" s="7">
         <v>0.82</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
         <v>0.71</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="7">
         <v>0.95</v>
       </c>
-      <c r="G31" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="G31" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="I31" s="7">
         <v>0.82</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <v>15</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
         <v>0.61</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="6">
         <v>0.91</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.96</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="6">
         <v>0.76</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <v>20</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
         <v>0.62</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="6">
         <v>0.92</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
         <v>0.96</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="6">
         <v>0.77</v>
       </c>
     </row>
@@ -1324,100 +1345,100 @@
       <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
         <v>0.54</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>0.88</v>
       </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
         <v>0.94</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="6">
         <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>10</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="6">
         <v>0.89</v>
       </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
         <v>0.94</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>15</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
         <v>0.48</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="6">
         <v>0.86</v>
       </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
         <v>0.92</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>20</v>
       </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
         <v>0.48</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="6">
         <v>0.86</v>
       </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
         <v>0.92</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="6">
         <v>0.65</v>
       </c>
     </row>
@@ -1426,100 +1447,100 @@
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
         <v>0.66</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6">
         <v>0.93</v>
       </c>
-      <c r="G38" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H38" s="6">
         <v>0.96</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="6">
         <v>0.78</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>10</v>
       </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
         <v>0.62</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="6">
         <v>0.92</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H39" s="6">
         <v>0.96</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>15</v>
       </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
         <v>0.59</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="6">
         <v>0.91</v>
       </c>
-      <c r="G40" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.95</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="6">
         <v>0.73</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="2">
+      <c r="C41" s="6">
         <v>20</v>
       </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="6">
         <v>0.9</v>
       </c>
-      <c r="G41" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H41" s="6">
         <v>0.94</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="6">
         <v>0.71</v>
       </c>
     </row>
@@ -1528,100 +1549,100 @@
       <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>5</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>0.98</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="6">
         <v>0.54</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="6">
         <v>0.91</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="6">
         <v>0.83</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="6">
         <v>0.94</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="6">
         <v>0.66</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>0.98</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="6">
         <v>0.51</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="6">
         <v>0.89</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>0.83</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <v>0.93</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="6">
         <v>0.63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="2">
+      <c r="C44" s="6">
         <v>15</v>
       </c>
-      <c r="D44" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E44" s="6">
         <v>0.42</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="6">
         <v>0.85</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="6">
         <v>0.83</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="6">
         <v>0.91</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="2">
+      <c r="C45" s="6">
         <v>20</v>
       </c>
-      <c r="D45" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E45" s="6">
         <v>0.4</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="6">
         <v>0.84</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="6">
         <v>0.8</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="6">
         <v>0.9</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="6">
         <v>0.53</v>
       </c>
     </row>
@@ -1630,100 +1651,100 @@
       <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="6">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
         <v>0.69</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="6">
         <v>0.94</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="G46" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="I46" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>10</v>
       </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
         <v>0.63</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="6">
         <v>0.92</v>
       </c>
-      <c r="G47" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H47" s="6">
         <v>0.96</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="6">
         <v>0.76</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="2">
+      <c r="C48" s="6">
         <v>15</v>
       </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="6">
         <v>0.89</v>
       </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
         <v>0.94</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="2">
+      <c r="C49" s="6">
         <v>20</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>0.99</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="6">
         <v>0.54</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="6">
         <v>0.89</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H49" s="6">
         <v>0.94</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="6">
         <v>0.69</v>
       </c>
     </row>
@@ -1734,100 +1755,100 @@
       <c r="B50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>5</v>
       </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
         <v>0.45</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="6">
         <v>0.84</v>
       </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
         <v>0.91</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="6">
         <v>0.62</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="2">
+      <c r="C51" s="6">
         <v>10</v>
       </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
         <v>0.42</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="6">
         <v>0.82</v>
       </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
         <v>0.9</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="6">
         <v>0.59</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>15</v>
       </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
         <v>0.41</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="6">
         <v>0.81</v>
       </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
         <v>0.89</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>20</v>
       </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
         <v>0.45</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="6">
         <v>0.83</v>
       </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
         <v>0.91</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="6">
         <v>0.62</v>
       </c>
     </row>
@@ -1836,100 +1857,100 @@
       <c r="B54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="6">
         <v>0.99</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="6">
         <v>0.45</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="6">
         <v>0.84</v>
       </c>
-      <c r="G54" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="H54" s="6">
         <v>0.91</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="6">
         <v>0.62</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="2">
+      <c r="C55" s="6">
         <v>10</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="6">
         <v>0.99</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="6">
         <v>0.47</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="6">
         <v>0.86</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="6">
         <v>0.93</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="6">
         <v>0.92</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="6">
         <v>0.63</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="2">
+      <c r="C56" s="6">
         <v>15</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="6">
         <v>0.99</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="6">
         <v>0.41</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="6">
         <v>0.82</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="6">
         <v>0.93</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="6">
         <v>0.89</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>20</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>0.99</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="6">
         <v>0.41</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="6">
         <v>0.82</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="6">
         <v>0.93</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="6">
         <v>0.9</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1938,100 +1959,100 @@
       <c r="B58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="6">
         <v>5</v>
       </c>
-      <c r="D58" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E58" s="6">
         <v>0.39</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="6">
         <v>0.83</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="6">
         <v>0.83</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="6">
         <v>0.89</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="6">
         <v>0.53</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="2">
+      <c r="C59" s="6">
         <v>10</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="6">
         <v>0.96</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="6">
         <v>0.35</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="6">
         <v>0.82</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="6">
         <v>0.73</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="6">
         <v>0.88</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="6">
         <v>0.47</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="2">
+      <c r="C60" s="6">
         <v>15</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="6">
         <v>0.96</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="6">
         <v>0.32</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="6">
         <v>0.78</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="6">
         <v>0.77</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="6">
         <v>0.86</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>20</v>
       </c>
-      <c r="D61" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E61" s="6">
         <v>0.33</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="6">
         <v>0.78</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="6">
         <v>0.8</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="6">
         <v>0.87</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="6">
         <v>0.47</v>
       </c>
     </row>
@@ -2040,125 +2061,125 @@
       <c r="B62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="6">
         <v>5</v>
       </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="6">
         <v>0.89</v>
       </c>
-      <c r="G62" s="2">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
         <v>0.94</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="2">
+      <c r="C63" s="6">
         <v>10</v>
       </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
         <v>0.49</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="6">
         <v>0.86</v>
       </c>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
         <v>0.93</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="6">
         <v>0.66</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="2">
+      <c r="C64" s="6">
         <v>15</v>
       </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
         <v>0.48</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="6">
         <v>0.85</v>
       </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
         <v>0.92</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="2">
+      <c r="C65" s="6">
         <v>20</v>
       </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
         <v>0.48</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="6">
         <v>0.85</v>
       </c>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2">
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
         <v>0.92</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="6">
         <v>0.65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
